--- a/Source Code/Window Q/Data/_QuatationData.xlsx
+++ b/Source Code/Window Q/Data/_QuatationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Sr.No</t>
   </si>
@@ -232,15 +232,6 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
     <t>₹1,111.00</t>
   </si>
   <si>
@@ -250,19 +241,25 @@
     <t>₹1,59,984.00</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>₹14,443.00</t>
-  </si>
-  <si>
-    <t>1111111111</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>₹1,74,427.00</t>
+  </si>
+  <si>
+    <t>₹2,05,823.86</t>
+  </si>
+  <si>
+    <t>False Flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -315,11 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,23 +840,44 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>80</v>
+      <c r="AG2">
+        <v>1111</v>
+      </c>
+      <c r="AQ2">
+        <v>1111111111</v>
       </c>
       <c r="AS2">
         <v>1111</v>
       </c>
       <c r="AT2">
         <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>44923.58901818155</v>
+      </c>
+      <c r="BB2">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -928,26 +947,41 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3">
+        <v>12</v>
+      </c>
+      <c r="AE3">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>78</v>
+      <c r="AG3">
+        <v>1111</v>
       </c>
       <c r="AK3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="AQ3">
+        <v>1111111111</v>
       </c>
       <c r="AS3">
         <v>14443</v>
       </c>
       <c r="AT3">
         <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>44923.58901818155</v>
+      </c>
+      <c r="BB3">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -1017,26 +1051,47 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4">
+        <v>144</v>
+      </c>
+      <c r="AE4">
+        <v>144</v>
+      </c>
+      <c r="AF4" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4">
+        <v>1111</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" t="s">
         <v>77</v>
       </c>
-      <c r="AG4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>80</v>
+      <c r="AQ4">
+        <v>1111111111</v>
       </c>
       <c r="AS4">
         <v>174427</v>
       </c>
       <c r="AT4">
         <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>44923.58901818155</v>
+      </c>
+      <c r="BB4">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Source Code/Window Q/Data/_QuatationData.xlsx
+++ b/Source Code/Window Q/Data/_QuatationData.xlsx
@@ -874,7 +874,7 @@
         <v>78</v>
       </c>
       <c r="AZ2" s="2">
-        <v>44923.58901818155</v>
+        <v>45084.49676717241</v>
       </c>
       <c r="BB2">
         <v>69</v>
@@ -978,7 +978,7 @@
         <v>76</v>
       </c>
       <c r="AZ3" s="2">
-        <v>44923.58901818155</v>
+        <v>45084.49676717241</v>
       </c>
       <c r="BB3">
         <v>69</v>
@@ -1088,7 +1088,7 @@
         <v>76</v>
       </c>
       <c r="AZ4" s="2">
-        <v>44923.58901818155</v>
+        <v>45084.49676717241</v>
       </c>
       <c r="BB4">
         <v>69</v>
